--- a/input/data_test.xlsx
+++ b/input/data_test.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="13056"/>
   </bookViews>
   <sheets>
-    <sheet name="Applications" sheetId="1" r:id="rId4"/>
-    <sheet name="Links" sheetId="2" r:id="rId5"/>
+    <sheet name="Applications" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -29,18 +32,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Nutzerzahl</t>
-  </si>
-  <si>
-    <t>Kritikalität</t>
-  </si>
-  <si>
     <t>Themenfeld</t>
   </si>
   <si>
-    <t>Basiskomponente</t>
-  </si>
-  <si>
     <t>Cluster</t>
   </si>
   <si>
@@ -53,31 +47,12 @@
     <t>ID01</t>
   </si>
   <si>
-    <t>Test01</t>
-  </si>
-  <si>
     <t xml:space="preserve">01.2018 </t>
   </si>
   <si>
     <t>aktiv</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri Light"/>
-      </rPr>
-      <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 01</t>
-    </r>
-  </si>
-  <si>
-    <t>mittel</t>
-  </si>
-  <si>
-    <t>hoch</t>
-  </si>
-  <si>
     <t>AAA</t>
   </si>
   <si>
@@ -90,47 +65,18 @@
     <t>ID02</t>
   </si>
   <si>
-    <t>Test02</t>
-  </si>
-  <si>
     <t xml:space="preserve">02.2018 </t>
   </si>
   <si>
     <t>deprecated</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri Light"/>
-      </rPr>
-      <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 02</t>
-    </r>
-  </si>
-  <si>
     <t>ID03</t>
   </si>
   <si>
-    <t>Test03</t>
-  </si>
-  <si>
     <t xml:space="preserve">03.2018 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri Light"/>
-      </rPr>
-      <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 03</t>
-    </r>
-  </si>
-  <si>
-    <t>niedrig</t>
-  </si>
-  <si>
     <t>BBB</t>
   </si>
   <si>
@@ -140,66 +86,24 @@
     <t>ID04</t>
   </si>
   <si>
-    <t>Test04</t>
-  </si>
-  <si>
     <t xml:space="preserve">04.2018 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri Light"/>
-      </rPr>
-      <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 04</t>
-    </r>
-  </si>
-  <si>
     <t>ID05</t>
   </si>
   <si>
-    <t>Test05</t>
-  </si>
-  <si>
     <t xml:space="preserve">05.2018 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri Light"/>
-      </rPr>
-      <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 05</t>
-    </r>
-  </si>
-  <si>
     <t>Host-B</t>
   </si>
   <si>
     <t>ID06</t>
   </si>
   <si>
-    <t>Test06</t>
-  </si>
-  <si>
     <t xml:space="preserve">06.2018 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri Light"/>
-      </rPr>
-      <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 06</t>
-    </r>
-  </si>
-  <si>
-    <t>gering</t>
-  </si>
-  <si>
     <t>Host-A</t>
   </si>
   <si>
@@ -251,50 +155,255 @@
     <t>JDBC</t>
   </si>
   <si>
-    <t>SSH</t>
+    <t>Sub-Cluster</t>
+  </si>
+  <si>
+    <t>AAA-1</t>
+  </si>
+  <si>
+    <t>AAA-2</t>
+  </si>
+  <si>
+    <t>BBB-1</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>E-Mail Versand</t>
+  </si>
+  <si>
+    <t>Anwendungsdaten</t>
+  </si>
+  <si>
+    <t>Events &amp; Logging</t>
+  </si>
+  <si>
+    <t>Service A</t>
+  </si>
+  <si>
+    <t>Service B</t>
+  </si>
+  <si>
+    <t>Service C</t>
+  </si>
+  <si>
+    <t>Service E</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 01</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 02</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 03</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 04</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 05</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation. 06</t>
+  </si>
+  <si>
+    <t>Application 01</t>
+  </si>
+  <si>
+    <t>Application 02</t>
+  </si>
+  <si>
+    <t>Application 03</t>
+  </si>
+  <si>
+    <t>Application 04</t>
+  </si>
+  <si>
+    <t>Application 05</t>
+  </si>
+  <si>
+    <t>Application 06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri Light"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,42 +412,191 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -362,79 +620,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -444,26 +630,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,153 +639,1305 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="25" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="51">
+    <cellStyle name="20 % - Akzent1 2" xfId="11"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="12"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="13"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="14"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="15"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="16"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="17"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="18"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="19"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="20"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="21"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="22"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="23"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="24"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="25"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="26"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="27"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="28"/>
+    <cellStyle name="Akzent1 2" xfId="29"/>
+    <cellStyle name="Akzent2 2" xfId="30"/>
+    <cellStyle name="Akzent3 2" xfId="31"/>
+    <cellStyle name="Akzent4 2" xfId="32"/>
+    <cellStyle name="Akzent5 2" xfId="33"/>
+    <cellStyle name="Akzent6 2" xfId="34"/>
+    <cellStyle name="Ausgabe" xfId="5" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="6" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="4" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="9" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text 2" xfId="35"/>
+    <cellStyle name="Gut 2" xfId="36"/>
+    <cellStyle name="Neutral 2" xfId="37"/>
+    <cellStyle name="Normal 2" xfId="38"/>
+    <cellStyle name="Normal 2 2 2" xfId="39"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="40"/>
+    <cellStyle name="Normal 3 2" xfId="41"/>
+    <cellStyle name="Notiz 2" xfId="42"/>
+    <cellStyle name="Schlecht 2" xfId="43"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="44"/>
+    <cellStyle name="Standard 2 2" xfId="48"/>
+    <cellStyle name="Standard 3" xfId="49"/>
+    <cellStyle name="Standard 3 2" xfId="50"/>
+    <cellStyle name="Standard 4" xfId="10"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4 2" xfId="46"/>
+    <cellStyle name="Überschrift 5" xfId="45"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="7" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text 2" xfId="47"/>
+    <cellStyle name="Zelle überprüfen" xfId="8" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="Standard"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff0070c0"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff7f6000"/>
-      <rgbColor rgb="ff335593"/>
-      <rgbColor rgb="ff548135"/>
-      <rgbColor rgb="ffe7e6e6"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF7F6000"/>
+      <rgbColor rgb="FF335593"/>
+      <rgbColor rgb="FF548135"/>
+      <rgbColor rgb="FFE7E6E6"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:J7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Standard 2">
+  <autoFilter ref="A1:J7"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="ID" dataDxfId="24"/>
+    <tableColumn id="2" name="Name" dataDxfId="23"/>
+    <tableColumn id="3" name="VvV" dataDxfId="22"/>
+    <tableColumn id="4" name="Status" dataDxfId="21"/>
+    <tableColumn id="5" name="Description" dataDxfId="20"/>
+    <tableColumn id="6" name="Cluster" dataDxfId="19"/>
+    <tableColumn id="7" name="Sub-Cluster" dataDxfId="18"/>
+    <tableColumn id="8" name="Themenfeld" dataDxfId="17"/>
+    <tableColumn id="9" name="Hersteller" dataDxfId="16"/>
+    <tableColumn id="10" name="Location" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A2:H9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <autoFilter ref="A2:H9"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID1" dataDxfId="7"/>
+    <tableColumn id="2" name="Name#1" dataDxfId="6">
+      <calculatedColumnFormula>VLOOKUP(A3:A3,Applications!A$1:B$7,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="ID2" dataDxfId="5"/>
+    <tableColumn id="4" name="Name#2" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(C3:C3,Applications!A$1:J$7,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Integration Style" dataDxfId="3"/>
+    <tableColumn id="6" name="Protokoll" dataDxfId="2"/>
+    <tableColumn id="7" name="Daten " dataDxfId="1"/>
+    <tableColumn id="8" name="Kommentar" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -819,7 +2139,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -838,7 +2158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +2188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +2214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +2240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +2266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +2292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +2318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +2344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,7 +2370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +2396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,9 +2409,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1108,7 +2434,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1127,7 +2453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,7 +2479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +2505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1205,7 +2531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1231,7 +2557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1257,7 +2583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1283,7 +2609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +2635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +2661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,7 +2687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,9 +2700,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1390,7 +2722,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1409,7 +2741,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1439,7 +2771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1465,7 +2797,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,7 +2823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1517,7 +2849,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1543,7 +2875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1569,7 +2901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1595,7 +2927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1621,7 +2953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1647,7 +2979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1660,736 +2992,875 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:IR10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1719" style="1" customWidth="1"/>
-    <col min="13" max="20" width="11.5" style="1" customWidth="1"/>
-    <col min="21" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="16" width="11.44140625" style="1" customWidth="1"/>
+    <col min="17" max="252" width="10.88671875" style="1" customWidth="1"/>
+    <col min="253" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:252" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="8"/>
+      <c r="FW1" s="8"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="8"/>
+      <c r="GO1" s="8"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="8"/>
+      <c r="HG1" s="8"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="8"/>
+      <c r="HY1" s="8"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="8"/>
+      <c r="IQ1" s="8"/>
+      <c r="IR1" s="8"/>
+    </row>
+    <row r="2" spans="1:252" ht="39.6">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="2" ht="75" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="3" spans="1:252" ht="39.6">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="I3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s" s="6">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:252" ht="39.6">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s" s="6">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" t="s" s="6">
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="3" ht="69" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="5" spans="1:252" ht="39.6">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:252" ht="39.6">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
-    <row r="4" ht="73.4" customHeight="1">
-      <c r="A4" t="s" s="6">
+    <row r="7" spans="1:252" ht="39.6">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
-    <row r="5" ht="69" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+    <row r="8" spans="1:252" ht="13.65" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
-    <row r="6" ht="75" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+    <row r="9" spans="1:252" ht="13.65" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
-    <row r="7" ht="75" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18"/>
+    <row r="10" spans="1:252" ht="13.65" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.708661" right="0.708661" top="0.787402" bottom="0.787402" header="0.314961" footer="0.314961"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="94" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.78740200000000005" bottom="0.78740200000000005" header="0.31496099999999999" footer="0.31496099999999999"/>
+  <pageSetup scale="94" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Arial,Bold"&amp;10&amp;K000000IHK München Vertraulich&amp;C&amp;"Arial,Regular"&amp;10&amp;K00000009.10.18&amp;R&amp;"Arial,Regular"&amp;10&amp;K000000Seite &amp;P</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;10&amp;K000000/Users/markus/Projects/IntelliJ/directed_graph_generator/input/Anwendungssystem_Landkarte.xlsx</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="13.8" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.1719" style="19" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.1719" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.8516" style="19" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="19" customWidth="1"/>
-    <col min="6" max="6" width="14.3516" style="19" customWidth="1"/>
-    <col min="7" max="7" width="27.3516" style="19" customWidth="1"/>
-    <col min="8" max="8" width="29.6719" style="19" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="13" customWidth="1"/>
+    <col min="9" max="256" width="8.88671875" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="20">
-        <v>49</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" t="s" s="22">
-        <v>50</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="20">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s" s="25">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s" s="26">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>VLOOKUP(A3:A3,Applications!A$1:B$7,2,FALSE)</f>
+        <v>Application 01</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>VLOOKUP(C3:C3,Applications!A$1:J$7,2,FALSE)</f>
+        <v>Application 03</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s" s="27">
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="19" t="str">
+        <f>VLOOKUP(A4:A4,Applications!A$1:B$7,2,FALSE)</f>
+        <v>Application 02</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>VLOOKUP(C4:C4,Applications!A$1:J$7,2,FALSE)</f>
+        <v>Application 04</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="19" t="str">
+        <f>VLOOKUP(A5:A5,Applications!A$1:B$7,2,FALSE)</f>
+        <v>Application 03</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f>VLOOKUP(C5:C5,Applications!A$1:J$7,2,FALSE)</f>
+        <v>Application 05</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="19" t="str">
+        <f>VLOOKUP(A6:A6,Applications!A$1:B$7,2,FALSE)</f>
+        <v>Application 04</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>VLOOKUP(C6:C6,Applications!A$1:J$7,2,FALSE)</f>
+        <v>Application 06</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s" s="28">
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="19" t="str">
+        <f>VLOOKUP(A7:A7,Applications!A$1:B$7,2,FALSE)</f>
+        <v>Application 01</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>VLOOKUP(C7:C7,Applications!A$1:J$7,2,FALSE)</f>
+        <v>Application 04</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="19" t="str">
+        <f>VLOOKUP(A8:A8,Applications!A$1:B$7,2,FALSE)</f>
+        <v>Application 02</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>VLOOKUP(C8:C8,Applications!A$1:J$7,2,FALSE)</f>
+        <v>Application 06</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s" s="28">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s" s="28">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s" s="28">
-        <v>58</v>
-      </c>
+      <c r="H8" s="24"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="29">
-        <f>VLOOKUP(A3:A3,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s" s="29">
-        <f>VLOOKUP(C3:C3,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>28</v>
-      </c>
-      <c r="E3" t="s" s="6">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="19" t="str">
+        <f>VLOOKUP(A9:A9,Applications!A$1:B$7,2,FALSE)</f>
+        <v>Application 01</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>VLOOKUP(C9:C9,Applications!A$1:J$7,2,FALSE)</f>
+        <v>Application 02</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F3" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s" s="29">
-        <f>VLOOKUP(A4:A4,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s" s="29">
-        <f>VLOOKUP(C4:C4,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s" s="29">
-        <f>VLOOKUP(A5:A5,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s" s="29">
-        <f>VLOOKUP(C5:C5,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s" s="29">
-        <f>VLOOKUP(A6:A6,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s" s="29">
-        <f>VLOOKUP(C6:C6,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>64</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s" s="29">
-        <f>VLOOKUP(A7:A7,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s" s="29">
-        <f>VLOOKUP(C7:C7,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>35</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s" s="29">
-        <f>VLOOKUP(A8:A8,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s" s="29">
-        <f>VLOOKUP(C8:C8,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>39</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s" s="29">
-        <f>VLOOKUP(A9:A9,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s" s="29">
-        <f>VLOOKUP(C9:C9,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="E9" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s" s="29">
-        <f>VLOOKUP(A10:A10,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>23</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s" s="29">
-        <f>VLOOKUP(C10:C10,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s" s="29">
-        <f>VLOOKUP(A11:A11,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>28</v>
-      </c>
-      <c r="C11" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="29">
-        <f>VLOOKUP(C11:C11,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="E11" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="30"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s" s="29">
-        <f>VLOOKUP(A12:A12,'Applications'!A$1:B$7,2,FALSE)</f>
-        <v>44</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="29">
-        <f>VLOOKUP(C12:C12,'Applications'!A$1:L$7,2,FALSE)</f>
-        <v>13</v>
-      </c>
-      <c r="E12" t="s" s="6">
-        <v>59</v>
-      </c>
-      <c r="F12" t="s" s="6">
-        <v>62</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="30"/>
+      <c r="H9" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="96" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup scale="96" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>